--- a/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem4/correct_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem4/correct_predictions.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,22 +531,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RTH may be affected</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Battery Alert</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Battery installation error</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Please check the batteries are inserted correctly</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone Unable to take off Check map to find Recommended Zones .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8-13</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone Unable to take off Check map to find Recommended Zones .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -711,27 +711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone Unable to take off Check map to find Recommended Zones .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
+          <t>Aircraft in Restricted Zone Unable to take off Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Account not logged in</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
+          <t>Aircraft in Restricted Zone Unable to take off Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Flight altitude and distance restricted to nnn and nnn</t>
+          <t>Aircraft in Restricted Zone</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,31 +797,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft in Restricted Zone Unable to take off Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RTH Altitude is 30m</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -831,17 +831,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -861,17 +861,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Critically Low Power Aircraft Landing Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Critically Low Power</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Critically Low Power Aircraft Landing Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
+          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft Landing</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Critically Low Power Aircraft Landing Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
+          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5-18</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Positioning accuracy affected</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1011,27 +1011,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Critically Low Power Aircraft Landing Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critically Low Power</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Critically Low Power Aircraft Landing Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Aircraft Landing</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1061,27 +1061,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution .</t>
+          <t>Critically Low Power Aircraft Landing Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>5-18</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1136,42 +1136,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1191,17 +1191,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Insufficient storage space</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1241,32 +1241,32 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
+          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>High altitude</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
+          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft braking distance increased and flight time decreased</t>
+          <t>Approaching a No-Fly Zone</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
+          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,31 +1337,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
+          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode and hovering may be unstable</t>
+          <t>RTH may be affected</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-12</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
+          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Remote ID error</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1401,17 +1401,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
+          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>11-21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Connect to network to obtain mobile device location</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1461,27 +1461,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1551,17 +1551,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1581,57 +1581,57 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Downlink Lost</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>19-20</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Remote ID error</t>
+          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-18</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Connect to network to obtain mobile device location</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1697,21 +1697,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1731,22 +1731,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
+          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Insufficient storage space</t>
+          <t>Battery Alert</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
+          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Battery installation error</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1787,21 +1787,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1821,22 +1821,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>High altitude</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1851,17 +1851,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Aircraft braking distance increased and flight time decreased</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1877,31 +1877,31 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
+          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1911,27 +1911,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
+          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft entered Fixed-Wing Mode</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
+          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Positioning accuracy affected</t>
+          <t>Current flight speed is nnn</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1967,31 +1967,31 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
+          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Press C2 to exit</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2001,17 +2001,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
+          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Downlink Lost</t>
+          <t>Aircraft is in Attitude mode and hovering may be unstable</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>19-20</t>
+          <t>3-12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2031,57 +2031,57 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
+          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2096,12 +2096,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2126,52 +2126,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2181,27 +2181,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2211,47 +2211,47 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2271,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
+          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Current flight speed is nnn</t>
+          <t>Account not logged in</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2301,27 +2301,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
+          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Press C2 to exit</t>
+          <t>Flight altitude and distance restricted to nnn and nnn</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
